--- a/Assets/Data/Table/Convert/Input_InputGroup.xlsx
+++ b/Assets/Data/Table/Convert/Input_InputGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1774AF92-B2CB-4466-B851-FC7E03426061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A7D81-508C-4C16-866B-6BD9E9FD9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputGroup" sheetId="1" r:id="rId1"/>
@@ -180,256 +180,255 @@
     <t>Press</t>
   </si>
   <si>
-    <t>Enum.Input.
+    <t>Player_MoveLeft</t>
+  </si>
+  <si>
+    <t>Player_MoveLeft_Crouch</t>
+  </si>
+  <si>
+    <t>Player_MoveRight_Crouch</t>
+  </si>
+  <si>
+    <t>Player_Jump</t>
+  </si>
+  <si>
+    <t>Player_DoubleJump</t>
+  </si>
+  <si>
+    <t>Player_DiveMoveLeft</t>
+  </si>
+  <si>
+    <t>Player_DiveMoveRight</t>
+  </si>
+  <si>
+    <t>Player_DiveMoveUp</t>
+  </si>
+  <si>
+    <t>Player_DiveMoveDown</t>
+  </si>
+  <si>
+    <t>Player_DiveRelease</t>
+  </si>
+  <si>
+    <t>Player_HangRelease</t>
+  </si>
+  <si>
+    <t>Player_Defence</t>
+  </si>
+  <si>
+    <t>Player_DefenceRelease</t>
+  </si>
+  <si>
+    <t>Player_Crouch</t>
+  </si>
+  <si>
+    <t>Player_CrouchRelease</t>
+  </si>
+  <si>
+    <t>Player_Blink</t>
+  </si>
+  <si>
+    <t>Player_Interaction</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_MoveLeft</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_MoveRigth</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Jump</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Dive</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_HangRelease</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Look</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Guard</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Crouch</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Attack</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Move</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Jump</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Dive</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_HangRelease</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Look</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Guard</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Crouch</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Blink</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_Attack</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_MoveDown</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_MoveUp</t>
+  </si>
+  <si>
+    <t>Hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_ChargeAttack_Ready</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t>InputGroup_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_MoveRight</t>
+  </si>
+  <si>
+    <t>Player_DiveBelow</t>
+  </si>
+  <si>
+    <t>Player_DiveSide</t>
+  </si>
+  <si>
+    <t>Player_WallClimb</t>
+  </si>
+  <si>
+    <t>Player_Look</t>
+  </si>
+  <si>
+    <t>Player_ChargeAttack_2</t>
+  </si>
+  <si>
+    <t>Player_ChargeAttack_3</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_MoveLeft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_JumpDown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_MoveRelease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_Move_CrouchRelease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_DiveMoveRelease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>Keyboard_MainKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyboard_SubKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePad_MainKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GamePad_SubKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputValidTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_BackAssaultAttack</t>
+  </si>
+  <si>
+    <t>Player_HangAssaultAttack</t>
+  </si>
+  <si>
+    <t>Player_DiveAssaultAttack</t>
+  </si>
+  <si>
+    <t>Player_AirAssaultAttack</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_BlinkCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_Blink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_KeyBoard_BlinkCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_KeyMapping_GamePad_BlinkCancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Input.
 InputType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_MoveLeft</t>
-  </si>
-  <si>
-    <t>Player_MoveLeft_Crouch</t>
-  </si>
-  <si>
-    <t>Player_MoveRight_Crouch</t>
-  </si>
-  <si>
-    <t>Player_Jump</t>
-  </si>
-  <si>
-    <t>Player_DoubleJump</t>
-  </si>
-  <si>
-    <t>Player_DiveMoveLeft</t>
-  </si>
-  <si>
-    <t>Player_DiveMoveRight</t>
-  </si>
-  <si>
-    <t>Player_DiveMoveUp</t>
-  </si>
-  <si>
-    <t>Player_DiveMoveDown</t>
-  </si>
-  <si>
-    <t>Player_DiveRelease</t>
-  </si>
-  <si>
-    <t>Player_HangRelease</t>
-  </si>
-  <si>
-    <t>Player_Defence</t>
-  </si>
-  <si>
-    <t>Player_DefenceRelease</t>
-  </si>
-  <si>
-    <t>Player_Crouch</t>
-  </si>
-  <si>
-    <t>Player_CrouchRelease</t>
-  </si>
-  <si>
-    <t>Player_Blink</t>
-  </si>
-  <si>
-    <t>Player_Interaction</t>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_MoveLeft</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_MoveRigth</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Jump</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Dive</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_HangRelease</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Look</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Guard</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Crouch</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Attack</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Move</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Jump</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Dive</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_HangRelease</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Look</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Guard</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Crouch</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Blink</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_Attack</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_MoveDown</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_MoveUp</t>
-  </si>
-  <si>
-    <t>Hold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_ChargeAttack_Ready</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>↓</t>
-  </si>
-  <si>
-    <t>InputGroup_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_MoveRight</t>
-  </si>
-  <si>
-    <t>Player_DiveBelow</t>
-  </si>
-  <si>
-    <t>Player_DiveSide</t>
-  </si>
-  <si>
-    <t>Player_WallClimb</t>
-  </si>
-  <si>
-    <t>Player_Look</t>
-  </si>
-  <si>
-    <t>Player_ChargeAttack_2</t>
-  </si>
-  <si>
-    <t>Player_ChargeAttack_3</t>
-  </si>
-  <si>
-    <t>Release</t>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_MoveLeft</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Jump</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_JumpDown</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_MoveRelease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_Move_CrouchRelease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_DiveMoveRelease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>○</t>
-  </si>
-  <si>
-    <t>Keyboard_MainKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keyboard_SubKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePad_MainKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GamePad_SubKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InputValidTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_BackAssaultAttack</t>
-  </si>
-  <si>
-    <t>Player_HangAssaultAttack</t>
-  </si>
-  <si>
-    <t>Player_DiveAssaultAttack</t>
-  </si>
-  <si>
-    <t>Player_AirAssaultAttack</t>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player_BlinkCancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_Blink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_KeyBoard_BlinkCancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setting_KeyMapping_GamePad_BlinkCancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1136,40 +1135,40 @@
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="72.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="72.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.09765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.69921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.3984375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="8" style="6" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="62" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="72.75" style="5"/>
+    <col min="13" max="13" width="9.19921875" style="52" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.19921875" style="62" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="72.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="83.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="81.599999999999994" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="F1" s="27" t="s">
         <v>89</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>90</v>
       </c>
       <c r="G1" s="27" t="s">
         <v>11</v>
@@ -1193,15 +1192,15 @@
         <v>8</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>16</v>
@@ -1229,7 +1228,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>3</v>
@@ -1238,22 +1237,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="str">
         <f t="shared" ref="A3:A18" si="0">B3&amp;"_"&amp;L3</f>
         <v>Player_MoveLeft_Hold</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>6</v>
@@ -1283,22 +1282,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Player_MoveRight_Hold</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="29" t="s">
         <v>6</v>
@@ -1328,28 +1327,28 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="29" t="str">
         <f t="shared" si="0"/>
         <v>Player_MoveRelease_Release</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>6</v>
@@ -1373,22 +1372,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Player_MoveLeft_Crouch_Hold</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>6</v>
@@ -1418,22 +1417,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Player_MoveRight_Crouch_Hold</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="30" t="s">
         <v>6</v>
@@ -1463,28 +1462,28 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="30" t="str">
         <f t="shared" si="0"/>
         <v>Player_Move_CrouchRelease_Release</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="30" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>24</v>
@@ -1499,7 +1498,7 @@
         <v>24</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M8" s="43" t="s">
         <v>24</v>
@@ -1508,22 +1507,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Player_Jump_Hold</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="31" t="s">
         <v>19</v>
@@ -1551,22 +1550,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Player_DoubleJump_Hold</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="32" t="s">
         <v>19</v>
@@ -1594,22 +1593,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="str">
         <f t="shared" si="0"/>
         <v>Player_JumpDown_Release</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F11" s="31" t="s">
         <v>6</v>
@@ -1639,22 +1638,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveBelow_Hold</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F12" s="33" t="s">
         <v>6</v>
@@ -1682,22 +1681,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveSide_Hold</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="33" t="s">
         <v>6</v>
@@ -1725,28 +1724,28 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveRelease_Release</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="33" t="s">
         <v>6</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>6</v>
@@ -1770,22 +1769,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="35" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveMoveLeft_Hold</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="33" t="s">
         <v>6</v>
@@ -1815,22 +1814,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveMoveRight_Hold</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="33" t="s">
         <v>6</v>
@@ -1860,22 +1859,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A17" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveMoveUp_Hold</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="33" t="s">
         <v>6</v>
@@ -1905,22 +1904,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Player_DiveMoveDown_Hold</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="33" t="s">
         <v>6</v>
@@ -1950,22 +1949,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="33" t="str">
         <f>B19&amp;"_"&amp;L19</f>
         <v>Player_DiveMoveRelease_Release</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>6</v>
@@ -1986,7 +1985,7 @@
         <v>24</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M19" s="46" t="s">
         <v>24</v>
@@ -1995,22 +1994,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="36" t="str">
         <f t="shared" ref="A20:A42" si="1">B20&amp;"_"&amp;L20</f>
         <v>Player_WallClimb_Hold</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>6</v>
@@ -2038,22 +2037,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="36" t="str">
         <f t="shared" si="1"/>
         <v>Player_HangRelease_Press</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>24</v>
@@ -2081,28 +2080,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Player_Look_Hold</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="31" t="s">
         <v>24</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H22" s="18">
         <v>0</v>
@@ -2117,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M22" s="44">
         <v>0</v>
@@ -2126,22 +2125,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Player_Defence_Hold</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" s="29" t="s">
         <v>24</v>
@@ -2160,7 +2159,7 @@
         <v>24</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M23" s="42">
         <v>0</v>
@@ -2169,22 +2168,22 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" s="15" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="29" t="str">
         <f t="shared" si="1"/>
         <v>Player_DefenceRelease_Release</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" s="29" t="s">
         <v>24</v>
@@ -2205,7 +2204,7 @@
         <v>24</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M24" s="42" t="s">
         <v>6</v>
@@ -2214,22 +2213,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Player_Crouch_Press</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F25" s="33" t="s">
         <v>24</v>
@@ -2257,22 +2256,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="33" t="str">
         <f t="shared" si="1"/>
         <v>Player_CrouchRelease_Press</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="33" t="s">
         <v>24</v>
@@ -2300,32 +2299,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Player_Blink_Hold</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J27" s="16">
         <v>0.1</v>
@@ -2334,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M27" s="43">
         <v>0</v>
@@ -2343,38 +2342,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="30" t="str">
         <f t="shared" si="1"/>
         <v>Player_BlinkCancel_Press</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>100</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>9</v>
@@ -2386,28 +2385,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="19" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" s="19" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="31" t="str">
         <f t="shared" si="1"/>
         <v>Player_Interaction_Press</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="H29" s="18">
         <v>315</v>
@@ -2431,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Player_NormalAttack_1_Press</v>
@@ -2440,13 +2439,13 @@
         <v>20</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="35" t="s">
         <v>24</v>
@@ -2474,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Player_NormalAttack_2_Press</v>
@@ -2483,13 +2482,13 @@
         <v>21</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F31" s="35" t="s">
         <v>24</v>
@@ -2517,7 +2516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" s="12" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="35" t="str">
         <f t="shared" si="1"/>
         <v>Player_NormalAttack_3_Press</v>
@@ -2526,13 +2525,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F32" s="35" t="s">
         <v>24</v>
@@ -2560,22 +2559,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_Ready_Hold</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="39" t="s">
         <v>24</v>
@@ -2594,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="L33" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M33" s="49">
         <v>0</v>
@@ -2603,7 +2602,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_1_Release</v>
@@ -2612,13 +2611,13 @@
         <v>23</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F34" s="39" t="s">
         <v>24</v>
@@ -2648,22 +2647,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_2_Release</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D35" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F35" s="39" t="s">
         <v>24</v>
@@ -2693,22 +2692,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_2_Press</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D36" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F36" s="39" t="s">
         <v>24</v>
@@ -2736,22 +2735,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:14" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_3_Release</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F37" s="39" t="s">
         <v>24</v>
@@ -2781,28 +2780,28 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="41" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="39" t="str">
         <f t="shared" si="1"/>
         <v>Player_ChargeAttack_3_Press</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="39" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G38" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="40">
         <v>135</v>
@@ -2826,22 +2825,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="37" t="str">
         <f t="shared" si="1"/>
         <v>Player_BackAssaultAttack_Press</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" s="37" t="s">
         <v>24</v>
@@ -2869,22 +2868,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="37" t="str">
         <f t="shared" si="1"/>
         <v>Player_HangAssaultAttack_Press</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F40" s="37" t="s">
         <v>24</v>
@@ -2912,22 +2911,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A41" s="37" t="str">
         <f t="shared" si="1"/>
         <v>Player_DiveAssaultAttack_Press</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F41" s="37" t="s">
         <v>24</v>
@@ -2955,22 +2954,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A42" s="37" t="str">
         <f t="shared" si="1"/>
         <v>Player_AirAssaultAttack_Press</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F42" s="37" t="s">
         <v>24</v>
@@ -2998,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>

--- a/Assets/Data/Table/Convert/Input_InputGroup.xlsx
+++ b/Assets/Data/Table/Convert/Input_InputGroup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A7D81-508C-4C16-866B-6BD9E9FD9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF95E7-CC6A-46EF-B1F2-C51393A8447B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InputGroup" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="101">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t>Player_HangAssaultAttack</t>
-  </si>
-  <si>
-    <t>Player_DiveAssaultAttack</t>
   </si>
   <si>
     <t>Player_AirAssaultAttack</t>
@@ -1128,11 +1125,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="72.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1151,7 +1148,7 @@
     <col min="15" max="16384" width="72.69921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="81.599999999999994" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>3</v>
       </c>
       <c r="L2" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M2" s="24" t="s">
         <v>3</v>
@@ -1996,7 +1993,7 @@
     </row>
     <row r="20" spans="1:14" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="36" t="str">
-        <f t="shared" ref="A20:A42" si="1">B20&amp;"_"&amp;L20</f>
+        <f t="shared" ref="A20:A41" si="1">B20&amp;"_"&amp;L20</f>
         <v>Player_WallClimb_Hold</v>
       </c>
       <c r="B20" s="36" t="s">
@@ -2308,7 +2305,7 @@
         <v>41</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>24</v>
@@ -2321,10 +2318,10 @@
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J27" s="16">
         <v>0.1</v>
@@ -2348,32 +2345,32 @@
         <v>Player_BlinkCancel_Press</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="30" t="s">
         <v>98</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>24</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L28" s="16" t="s">
         <v>9</v>
@@ -2914,7 +2911,7 @@
     <row r="41" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A41" s="37" t="str">
         <f t="shared" si="1"/>
-        <v>Player_DiveAssaultAttack_Press</v>
+        <v>Player_AirAssaultAttack_Press</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>93</v>
@@ -2954,63 +2951,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.4">
-      <c r="A42" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>Player_AirAssaultAttack_Press</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="51"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
